--- a/output/3_Regression/h19_test/h23table_rmse.xlsx
+++ b/output/3_Regression/h19_test/h23table_rmse.xlsx
@@ -532,7 +532,7 @@
         <v>0.9330286439434843</v>
       </c>
       <c r="F7">
-        <v>1.094977000215481</v>
+        <v>1.094977000215482</v>
       </c>
     </row>
     <row r="8" spans="1:6">

--- a/output/3_Regression/h19_test/h23table_rmse.xlsx
+++ b/output/3_Regression/h19_test/h23table_rmse.xlsx
@@ -532,7 +532,7 @@
         <v>0.9330286439434843</v>
       </c>
       <c r="F7">
-        <v>1.094977000215482</v>
+        <v>1.094977000215481</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -572,7 +572,7 @@
         <v>0.9146635301098847</v>
       </c>
       <c r="F9">
-        <v>0.9575350081646189</v>
+        <v>0.9575350081646188</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -592,7 +592,7 @@
         <v>0.9290321798140704</v>
       </c>
       <c r="F10">
-        <v>0.9340124550652816</v>
+        <v>0.9340124550652815</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -632,7 +632,7 @@
         <v>0.9321209186742598</v>
       </c>
       <c r="F12">
-        <v>0.9281951691595807</v>
+        <v>0.9281951691595806</v>
       </c>
     </row>
     <row r="13" spans="1:6">

--- a/output/3_Regression/h19_test/h23table_rmse.xlsx
+++ b/output/3_Regression/h19_test/h23table_rmse.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c9b36a04e2b00f1/Documentos/Github/inflation-prediction/output/3_Regression/h19_test/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_89D1A202DA30921FD2FE31D2F8F2D3C2D4581D15" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{461A3F47-E0AB-434E-B8E1-409A967D6A22}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Benchmark</t>
   </si>
@@ -37,8 +43,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,24 +99,154 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -145,7 +284,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -179,6 +318,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -213,9 +353,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -388,14 +529,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -415,18 +558,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.04584311301460819</v>
+        <v>4.5843113014608187E-2</v>
       </c>
       <c r="C2">
-        <v>12.50470672391896</v>
+        <v>12.504706723918961</v>
       </c>
       <c r="D2">
-        <v>1.77271000800241</v>
+        <v>1.7727100080024101</v>
       </c>
       <c r="E2">
         <v>1.727698303039481</v>
@@ -435,27 +578,27 @@
         <v>2.097739922802198</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.07472276542317045</v>
+        <v>7.4722765423170454E-2</v>
       </c>
       <c r="C3">
-        <v>7.630584978302189</v>
+        <v>7.6305849783021893</v>
       </c>
       <c r="D3">
-        <v>1.398314991429292</v>
+        <v>1.3983149914292921</v>
       </c>
       <c r="E3">
-        <v>1.414804998049623</v>
+        <v>1.4148049980496229</v>
       </c>
       <c r="F3">
-        <v>1.706785747798942</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>1.7067857477989421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -463,30 +606,30 @@
         <v>0.1023201615928605</v>
       </c>
       <c r="C4">
-        <v>5.528917473677947</v>
+        <v>5.5289174736779474</v>
       </c>
       <c r="D4">
-        <v>1.177488697154096</v>
+        <v>1.1774886971540961</v>
       </c>
       <c r="E4">
-        <v>1.220523990278397</v>
+        <v>1.2205239902783971</v>
       </c>
       <c r="F4">
-        <v>1.502871808068477</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>1.5028718080684771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.1294335616041556</v>
+        <v>0.12943356160415559</v>
       </c>
       <c r="C5">
-        <v>4.318934646891715</v>
+        <v>4.3189346468917149</v>
       </c>
       <c r="D5">
-        <v>1.017073836946584</v>
+        <v>1.0170738369465839</v>
       </c>
       <c r="E5">
         <v>1.080568485160339</v>
@@ -495,7 +638,7 @@
         <v>1.378799668533178</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -503,59 +646,59 @@
         <v>0.1564250666351803</v>
       </c>
       <c r="C6">
-        <v>3.513777681471966</v>
+        <v>3.5137776814719661</v>
       </c>
       <c r="D6">
-        <v>0.9219423924593897</v>
+        <v>0.92194239245938969</v>
       </c>
       <c r="E6">
         <v>1.000483351553243</v>
       </c>
       <c r="F6">
-        <v>1.225175941257027</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>1.2251759412570269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.183479243269954</v>
+        <v>0.18347924326995399</v>
       </c>
       <c r="C7">
         <v>2.929790968454324</v>
       </c>
       <c r="D7">
-        <v>0.8647257280876685</v>
+        <v>0.86472572808766845</v>
       </c>
       <c r="E7">
-        <v>0.9330286439434843</v>
+        <v>0.93302864394348428</v>
       </c>
       <c r="F7">
-        <v>1.094977000215481</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>1.0949770002154811</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.2106950992956158</v>
+        <v>0.21069509929561581</v>
       </c>
       <c r="C8">
-        <v>2.48222641237875</v>
+        <v>2.4822264123787501</v>
       </c>
       <c r="D8">
-        <v>0.8323414172957492</v>
+        <v>0.83234141729574918</v>
       </c>
       <c r="E8">
-        <v>0.9089773747739676</v>
+        <v>0.90897737477396756</v>
       </c>
       <c r="F8">
         <v>1.005162229253993</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -563,99 +706,381 @@
         <v>0.238096275012149</v>
       </c>
       <c r="C9">
-        <v>2.126891839356092</v>
+        <v>2.1268918393560918</v>
       </c>
       <c r="D9">
-        <v>0.8215623701824067</v>
+        <v>0.82156237018240674</v>
       </c>
       <c r="E9">
-        <v>0.9146635301098847</v>
+        <v>0.91466353010988466</v>
       </c>
       <c r="F9">
-        <v>0.9575350081646188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.95753500816461878</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.265665062753407</v>
+        <v>0.26566506275340701</v>
       </c>
       <c r="C10">
-        <v>1.838282629236548</v>
+        <v>1.8382826292365479</v>
       </c>
       <c r="D10">
-        <v>0.8207562189184683</v>
+        <v>0.82075621891846828</v>
       </c>
       <c r="E10">
-        <v>0.9290321798140704</v>
+        <v>0.92903217981407038</v>
       </c>
       <c r="F10">
-        <v>0.9340124550652815</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.93401245506528152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.2933678609115283</v>
+        <v>0.29336786091152828</v>
       </c>
       <c r="C11">
-        <v>1.600450328642388</v>
+        <v>1.6004503286423879</v>
       </c>
       <c r="D11">
-        <v>0.8185660205355546</v>
+        <v>0.81856602053555461</v>
       </c>
       <c r="E11">
-        <v>0.9359950417063975</v>
+        <v>0.93599504170639747</v>
       </c>
       <c r="F11">
-        <v>0.9226912510751054</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.92269125107510541</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.3211677862491893</v>
+        <v>0.32116778624918929</v>
       </c>
       <c r="C12">
-        <v>1.402846282836795</v>
+        <v>1.4028462828367949</v>
       </c>
       <c r="D12">
-        <v>0.810142450952813</v>
+        <v>0.81014245095281301</v>
       </c>
       <c r="E12">
-        <v>0.9321209186742598</v>
+        <v>0.93212091867425984</v>
       </c>
       <c r="F12">
-        <v>0.9281951691595806</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.92819516915958056</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.3490277421548207</v>
+        <v>0.34902774215482069</v>
       </c>
       <c r="C13">
-        <v>1.238264816800232</v>
+        <v>1.2382648168002319</v>
       </c>
       <c r="D13">
-        <v>0.7975698491640383</v>
+        <v>0.79756984916403828</v>
       </c>
       <c r="E13">
-        <v>0.9177167489759708</v>
+        <v>0.91771674897597078</v>
       </c>
       <c r="F13">
-        <v>0.9199612280331548</v>
+        <v>0.91996122803315483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1">
+        <v>7</v>
+      </c>
+      <c r="I15" s="1">
+        <v>8</v>
+      </c>
+      <c r="J15" s="1">
+        <v>9</v>
+      </c>
+      <c r="K15" s="1">
+        <v>10</v>
+      </c>
+      <c r="L15" s="1">
+        <v>11</v>
+      </c>
+      <c r="M15" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4.5843113014608187E-2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>7.4722765423170454E-2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.1023201615928605</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.12943356160415601</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.1564250666351803</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.18347924326995399</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.21069509929561581</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.238096275012149</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.26566506275340701</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.29336786091152828</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.32116778624918929</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.34902774215482069</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2">
+        <v>12.504706723918961</v>
+      </c>
+      <c r="C17" s="2">
+        <v>7.6305849783021893</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5.5289174736779474</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4.3189346468917149</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3.5137776814719661</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2.929790968454324</v>
+      </c>
+      <c r="H17" s="2">
+        <v>2.4822264123787501</v>
+      </c>
+      <c r="I17" s="2">
+        <v>2.1268918393560918</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1.8382826292365479</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1.6004503286423879</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1.4028462828367949</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1.2382648168002319</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1.7727100080024101</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.3983149914292901</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.1774886971540961</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.0170738369465839</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.92194239245938969</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.86472572808766845</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.83234141729574918</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.82156237018240674</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.82075621891846828</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.81856602053555461</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.81014245095281301</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.79756984916403795</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1.727698303039481</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.4148049980496229</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.2205239902783971</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.080568485160339</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1.000483351553243</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.93302864394348428</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.90897737477396801</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.91466353010988466</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.92903217981407038</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.93599504170639747</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.93212091867425984</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.91771674897597078</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2.097739922802198</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1.7067857477989421</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.5028718080684771</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1.378799668533178</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1.2251759412570269</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1.0949770002154811</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1.005162229253993</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.95753500816461878</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.93401245506528152</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.92269125107510541</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.92819516915958056</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.91996122803315505</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B17:B20">
+    <cfRule type="top10" dxfId="11" priority="12" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C20">
+    <cfRule type="top10" dxfId="10" priority="11" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D20">
+    <cfRule type="top10" dxfId="9" priority="10" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:E20">
+    <cfRule type="top10" dxfId="8" priority="9" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:F20">
+    <cfRule type="top10" dxfId="7" priority="8" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:G20">
+    <cfRule type="top10" dxfId="6" priority="7" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:H20">
+    <cfRule type="top10" dxfId="5" priority="6" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:I20">
+    <cfRule type="top10" dxfId="4" priority="5" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:J20">
+    <cfRule type="top10" dxfId="3" priority="4" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17:K20">
+    <cfRule type="top10" dxfId="2" priority="3" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17:L20">
+    <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17:M20">
+    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/3_Regression/h19_test/h23table_rmse.xlsx
+++ b/output/3_Regression/h19_test/h23table_rmse.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c9b36a04e2b00f1/Documentos/Github/inflation-prediction/output/3_Regression/h19_test/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_89D1A202DA30921FD2FE31D2F8F2D3C2D4581D15" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{461A3F47-E0AB-434E-B8E1-409A967D6A22}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Benchmark</t>
   </si>
@@ -43,11 +37,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,154 +90,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -284,7 +145,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -318,7 +179,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -353,10 +213,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -529,16 +388,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -558,18 +415,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.5843113014608187E-2</v>
+        <v>0.04584311301460819</v>
       </c>
       <c r="C2">
-        <v>12.504706723918961</v>
+        <v>12.50470672391896</v>
       </c>
       <c r="D2">
-        <v>1.7727100080024101</v>
+        <v>1.77271000800241</v>
       </c>
       <c r="E2">
         <v>1.727698303039481</v>
@@ -578,27 +435,27 @@
         <v>2.097739922802198</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7.4722765423170454E-2</v>
+        <v>0.07472276542317045</v>
       </c>
       <c r="C3">
-        <v>7.6305849783021893</v>
+        <v>7.630584978302189</v>
       </c>
       <c r="D3">
-        <v>1.3983149914292921</v>
+        <v>1.398314991429292</v>
       </c>
       <c r="E3">
-        <v>1.4148049980496229</v>
+        <v>1.414804998049623</v>
       </c>
       <c r="F3">
-        <v>1.7067857477989421</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.706785747798942</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -606,30 +463,30 @@
         <v>0.1023201615928605</v>
       </c>
       <c r="C4">
-        <v>5.5289174736779474</v>
+        <v>5.528917473677947</v>
       </c>
       <c r="D4">
-        <v>1.1774886971540961</v>
+        <v>1.177488697154096</v>
       </c>
       <c r="E4">
-        <v>1.2205239902783971</v>
+        <v>1.220523990278397</v>
       </c>
       <c r="F4">
-        <v>1.5028718080684771</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.502871808068477</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.12943356160415559</v>
+        <v>0.1294335616041556</v>
       </c>
       <c r="C5">
-        <v>4.3189346468917149</v>
+        <v>4.318934646891715</v>
       </c>
       <c r="D5">
-        <v>1.0170738369465839</v>
+        <v>1.017073836946584</v>
       </c>
       <c r="E5">
         <v>1.080568485160339</v>
@@ -638,7 +495,7 @@
         <v>1.378799668533178</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -646,59 +503,59 @@
         <v>0.1564250666351803</v>
       </c>
       <c r="C6">
-        <v>3.5137776814719661</v>
+        <v>3.513777681471966</v>
       </c>
       <c r="D6">
-        <v>0.92194239245938969</v>
+        <v>0.9219423924593897</v>
       </c>
       <c r="E6">
         <v>1.000483351553243</v>
       </c>
       <c r="F6">
-        <v>1.2251759412570269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.225175941257027</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.18347924326995399</v>
+        <v>0.183479243269954</v>
       </c>
       <c r="C7">
         <v>2.929790968454324</v>
       </c>
       <c r="D7">
-        <v>0.86472572808766845</v>
+        <v>0.8647257280876685</v>
       </c>
       <c r="E7">
-        <v>0.93302864394348428</v>
+        <v>0.9330286439434843</v>
       </c>
       <c r="F7">
-        <v>1.0949770002154811</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.094977000215481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.21069509929561581</v>
+        <v>0.2106950992956158</v>
       </c>
       <c r="C8">
-        <v>2.4822264123787501</v>
+        <v>2.48222641237875</v>
       </c>
       <c r="D8">
-        <v>0.83234141729574918</v>
+        <v>0.8323414172957492</v>
       </c>
       <c r="E8">
-        <v>0.90897737477396756</v>
+        <v>0.9089773747739676</v>
       </c>
       <c r="F8">
         <v>1.005162229253993</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -706,381 +563,99 @@
         <v>0.238096275012149</v>
       </c>
       <c r="C9">
-        <v>2.1268918393560918</v>
+        <v>2.126891839356092</v>
       </c>
       <c r="D9">
-        <v>0.82156237018240674</v>
+        <v>0.8215623701824067</v>
       </c>
       <c r="E9">
-        <v>0.91466353010988466</v>
+        <v>0.9146635301098847</v>
       </c>
       <c r="F9">
-        <v>0.95753500816461878</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.9575350081646189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.26566506275340701</v>
+        <v>0.265665062753407</v>
       </c>
       <c r="C10">
-        <v>1.8382826292365479</v>
+        <v>1.838282629236548</v>
       </c>
       <c r="D10">
-        <v>0.82075621891846828</v>
+        <v>0.8207562189184683</v>
       </c>
       <c r="E10">
-        <v>0.92903217981407038</v>
+        <v>0.9290321798140704</v>
       </c>
       <c r="F10">
-        <v>0.93401245506528152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.9340124550652815</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.29336786091152828</v>
+        <v>0.2933678609115283</v>
       </c>
       <c r="C11">
-        <v>1.6004503286423879</v>
+        <v>1.600450328642388</v>
       </c>
       <c r="D11">
-        <v>0.81856602053555461</v>
+        <v>0.8185660205355546</v>
       </c>
       <c r="E11">
-        <v>0.93599504170639747</v>
+        <v>0.9359950417063975</v>
       </c>
       <c r="F11">
-        <v>0.92269125107510541</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.9226912510751054</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.32116778624918929</v>
+        <v>0.3211677862491893</v>
       </c>
       <c r="C12">
-        <v>1.4028462828367949</v>
+        <v>1.402846282836795</v>
       </c>
       <c r="D12">
-        <v>0.81014245095281301</v>
+        <v>0.810142450952813</v>
       </c>
       <c r="E12">
-        <v>0.93212091867425984</v>
+        <v>0.9321209186742598</v>
       </c>
       <c r="F12">
-        <v>0.92819516915958056</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.9281951691595806</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.34902774215482069</v>
+        <v>0.3490277421548207</v>
       </c>
       <c r="C13">
-        <v>1.2382648168002319</v>
+        <v>1.238264816800232</v>
       </c>
       <c r="D13">
-        <v>0.79756984916403828</v>
+        <v>0.7975698491640383</v>
       </c>
       <c r="E13">
-        <v>0.91771674897597078</v>
+        <v>0.9177167489759708</v>
       </c>
       <c r="F13">
-        <v>0.91996122803315483</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1">
-        <v>6</v>
-      </c>
-      <c r="H15" s="1">
-        <v>7</v>
-      </c>
-      <c r="I15" s="1">
-        <v>8</v>
-      </c>
-      <c r="J15" s="1">
-        <v>9</v>
-      </c>
-      <c r="K15" s="1">
-        <v>10</v>
-      </c>
-      <c r="L15" s="1">
-        <v>11</v>
-      </c>
-      <c r="M15" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2">
-        <v>4.5843113014608187E-2</v>
-      </c>
-      <c r="C16" s="2">
-        <v>7.4722765423170454E-2</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.1023201615928605</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.12943356160415601</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.1564250666351803</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.18347924326995399</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.21069509929561581</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0.238096275012149</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0.26566506275340701</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0.29336786091152828</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0.32116778624918929</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0.34902774215482069</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2">
-        <v>12.504706723918961</v>
-      </c>
-      <c r="C17" s="2">
-        <v>7.6305849783021893</v>
-      </c>
-      <c r="D17" s="2">
-        <v>5.5289174736779474</v>
-      </c>
-      <c r="E17" s="2">
-        <v>4.3189346468917149</v>
-      </c>
-      <c r="F17" s="2">
-        <v>3.5137776814719661</v>
-      </c>
-      <c r="G17" s="2">
-        <v>2.929790968454324</v>
-      </c>
-      <c r="H17" s="2">
-        <v>2.4822264123787501</v>
-      </c>
-      <c r="I17" s="2">
-        <v>2.1268918393560918</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1.8382826292365479</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1.6004503286423879</v>
-      </c>
-      <c r="L17" s="2">
-        <v>1.4028462828367949</v>
-      </c>
-      <c r="M17" s="2">
-        <v>1.2382648168002319</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1.7727100080024101</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1.3983149914292901</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1.1774886971540961</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1.0170738369465839</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.92194239245938969</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0.86472572808766845</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0.83234141729574918</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0.82156237018240674</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0.82075621891846828</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0.81856602053555461</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0.81014245095281301</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0.79756984916403795</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1.727698303039481</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1.4148049980496229</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1.2205239902783971</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1.080568485160339</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1.000483351553243</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0.93302864394348428</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0.90897737477396801</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0.91466353010988466</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0.92903217981407038</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0.93599504170639747</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0.93212091867425984</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0.91771674897597078</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="2">
-        <v>2.097739922802198</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1.7067857477989421</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1.5028718080684771</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1.378799668533178</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1.2251759412570269</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1.0949770002154811</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1.005162229253993</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0.95753500816461878</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0.93401245506528152</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0.92269125107510541</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0.92819516915958056</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0.91996122803315505</v>
+        <v>0.9199612280331548</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B17:B20">
-    <cfRule type="top10" dxfId="11" priority="12" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C20">
-    <cfRule type="top10" dxfId="10" priority="11" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D20">
-    <cfRule type="top10" dxfId="9" priority="10" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E20">
-    <cfRule type="top10" dxfId="8" priority="9" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17:F20">
-    <cfRule type="top10" dxfId="7" priority="8" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17:G20">
-    <cfRule type="top10" dxfId="6" priority="7" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17:H20">
-    <cfRule type="top10" dxfId="5" priority="6" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I20">
-    <cfRule type="top10" dxfId="4" priority="5" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17:J20">
-    <cfRule type="top10" dxfId="3" priority="4" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17:K20">
-    <cfRule type="top10" dxfId="2" priority="3" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L17:L20">
-    <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M17:M20">
-    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/3_Regression/h19_test/h23table_rmse.xlsx
+++ b/output/3_Regression/h19_test/h23table_rmse.xlsx
@@ -420,19 +420,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.04584311301460819</v>
+        <v>0.04584311301460775</v>
       </c>
       <c r="C2">
-        <v>12.50470672391896</v>
+        <v>11.28678123184012</v>
       </c>
       <c r="D2">
-        <v>1.77271000800241</v>
+        <v>1.193880622141764</v>
       </c>
       <c r="E2">
-        <v>1.727698303039481</v>
+        <v>0.8426650012175344</v>
       </c>
       <c r="F2">
-        <v>2.097739922802198</v>
+        <v>1.703071535918263</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -440,19 +440,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.07472276542317045</v>
+        <v>0.07472276542316671</v>
       </c>
       <c r="C3">
-        <v>7.630584978302189</v>
+        <v>6.600423640668243</v>
       </c>
       <c r="D3">
-        <v>1.398314991429292</v>
+        <v>0.5396405289592152</v>
       </c>
       <c r="E3">
-        <v>1.414804998049623</v>
+        <v>0.8051501024230799</v>
       </c>
       <c r="F3">
-        <v>1.706785747798942</v>
+        <v>1.503272837079764</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -460,19 +460,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1023201615928605</v>
+        <v>0.1023201615928555</v>
       </c>
       <c r="C4">
-        <v>5.528917473677947</v>
+        <v>4.482041874693274</v>
       </c>
       <c r="D4">
-        <v>1.177488697154096</v>
+        <v>0.422100429661927</v>
       </c>
       <c r="E4">
-        <v>1.220523990278397</v>
+        <v>0.7565697253173049</v>
       </c>
       <c r="F4">
-        <v>1.502871808068477</v>
+        <v>1.34442127016451</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -480,19 +480,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.1294335616041556</v>
+        <v>0.1294335616041497</v>
       </c>
       <c r="C5">
-        <v>4.318934646891715</v>
+        <v>3.271893990882105</v>
       </c>
       <c r="D5">
-        <v>1.017073836946584</v>
+        <v>0.4213327343464909</v>
       </c>
       <c r="E5">
-        <v>1.080568485160339</v>
+        <v>0.7513517476458902</v>
       </c>
       <c r="F5">
-        <v>1.378799668533178</v>
+        <v>1.236706829963623</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -500,19 +500,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.1564250666351803</v>
+        <v>0.1564250666351728</v>
       </c>
       <c r="C6">
-        <v>3.513777681471966</v>
+        <v>2.489076991856585</v>
       </c>
       <c r="D6">
-        <v>0.9219423924593897</v>
+        <v>0.4562953544005148</v>
       </c>
       <c r="E6">
-        <v>1.000483351553243</v>
+        <v>0.7287569969618641</v>
       </c>
       <c r="F6">
-        <v>1.225175941257027</v>
+        <v>1.201822065861464</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -520,19 +520,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.183479243269954</v>
+        <v>0.1834792432699449</v>
       </c>
       <c r="C7">
-        <v>2.929790968454324</v>
+        <v>1.952044745713221</v>
       </c>
       <c r="D7">
-        <v>0.8647257280876685</v>
+        <v>0.5100945946075637</v>
       </c>
       <c r="E7">
-        <v>0.9330286439434843</v>
+        <v>0.7028805828048916</v>
       </c>
       <c r="F7">
-        <v>1.094977000215481</v>
+        <v>1.150301544175247</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -540,19 +540,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.2106950992956158</v>
+        <v>0.2106950992956053</v>
       </c>
       <c r="C8">
-        <v>2.48222641237875</v>
+        <v>1.574425167011128</v>
       </c>
       <c r="D8">
-        <v>0.8323414172957492</v>
+        <v>0.5156689052681431</v>
       </c>
       <c r="E8">
-        <v>0.9089773747739676</v>
+        <v>0.6937136233494613</v>
       </c>
       <c r="F8">
-        <v>1.005162229253993</v>
+        <v>1.131770060897589</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -560,19 +560,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.238096275012149</v>
+        <v>0.2380962750121369</v>
       </c>
       <c r="C9">
-        <v>2.126891839356092</v>
+        <v>1.304951264707304</v>
       </c>
       <c r="D9">
-        <v>0.8215623701824067</v>
+        <v>0.5095048330183928</v>
       </c>
       <c r="E9">
-        <v>0.9146635301098847</v>
+        <v>0.6859334813859378</v>
       </c>
       <c r="F9">
-        <v>0.9575350081646189</v>
+        <v>1.022279442235151</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -580,19 +580,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.265665062753407</v>
+        <v>0.2656650627533933</v>
       </c>
       <c r="C10">
-        <v>1.838282629236548</v>
+        <v>1.10984064111992</v>
       </c>
       <c r="D10">
-        <v>0.8207562189184683</v>
+        <v>0.5157395087184805</v>
       </c>
       <c r="E10">
-        <v>0.9290321798140704</v>
+        <v>0.6848530520279976</v>
       </c>
       <c r="F10">
-        <v>0.9340124550652815</v>
+        <v>0.9862805905739135</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -600,19 +600,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.2933678609115283</v>
+        <v>0.2933678609115131</v>
       </c>
       <c r="C11">
-        <v>1.600450328642388</v>
+        <v>0.9626227112560747</v>
       </c>
       <c r="D11">
-        <v>0.8185660205355546</v>
+        <v>0.5238423494989158</v>
       </c>
       <c r="E11">
-        <v>0.9359950417063975</v>
+        <v>0.6887519493704789</v>
       </c>
       <c r="F11">
-        <v>0.9226912510751054</v>
+        <v>0.9754931484271171</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -620,19 +620,19 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.3211677862491893</v>
+        <v>0.3211677862491726</v>
       </c>
       <c r="C12">
-        <v>1.402846282836795</v>
+        <v>0.8506034416411787</v>
       </c>
       <c r="D12">
-        <v>0.810142450952813</v>
+        <v>0.5465882903916621</v>
       </c>
       <c r="E12">
-        <v>0.9321209186742598</v>
+        <v>0.6938660429804497</v>
       </c>
       <c r="F12">
-        <v>0.9281951691595806</v>
+        <v>0.9871117602433446</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -640,19 +640,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.3490277421548207</v>
+        <v>0.3490277421548019</v>
       </c>
       <c r="C13">
-        <v>1.238264816800232</v>
+        <v>0.7626561654548485</v>
       </c>
       <c r="D13">
-        <v>0.7975698491640383</v>
+        <v>0.5601733569130912</v>
       </c>
       <c r="E13">
-        <v>0.9177167489759708</v>
+        <v>0.6964685901718136</v>
       </c>
       <c r="F13">
-        <v>0.9199612280331548</v>
+        <v>0.9872315705831161</v>
       </c>
     </row>
   </sheetData>
